--- a/数据整理/stocks/A股/上证主板/603811-诚意药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603811-诚意药业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.80</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.55</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3064</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.25</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.33</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5324</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -604,15 +644,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>64.10</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.49</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2254</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -622,26 +672,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005429</t>
+          <t>005472</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>渤海汇金睿选混合A</t>
+          <t>富国价值驱动灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -650,26 +710,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005430</t>
+          <t>005473</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>渤海汇金睿选混合C</t>
+          <t>富国价值驱动灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -678,26 +748,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005472</t>
+          <t>002908</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国价值驱动灵活配置混合A</t>
+          <t>富国睿利定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.22</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -706,26 +786,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005473</t>
+          <t>005429</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国价值驱动灵活配置混合C</t>
+          <t>渤海汇金睿选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.22</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -734,26 +824,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002908</t>
+          <t>005430</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国睿利定期开放混合</t>
+          <t>渤海汇金睿选混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>28.28</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603811-诚意药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603811-诚意药业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4810</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603811-诚意药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603811-诚意药业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603811-诚意药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603811-诚意药业.xlsx
@@ -1017,12 +1017,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603811-诚意药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603811-诚意药业.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1001,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,17 +1013,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1032,14 +1053,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>59.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.68</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -1048,14 +1143,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.84</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="4">
@@ -1064,13 +1159,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.31</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603811-诚意药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603811-诚意药业.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,91 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000634</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国天盛灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.63</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3064</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>7</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.31</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -548,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -599,264 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000634</t>
+          <t>002938</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国天盛灵活配置混合</t>
+          <t>中银证券健康产业灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.25</t>
+          <t>59.84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5324</t>
+          <t>0.0486</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005549</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国成长优选三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>64.10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2254</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005472</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国价值驱动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.22</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0687</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005473</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国价值驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.22</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002908</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国睿利定期开放混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>28.28</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005429</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>渤海汇金睿选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>25.03</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005430</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>渤海汇金睿选混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>25.03</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1002,7 +780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1023,7 +801,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1053,36 +831,264 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002938</t>
+          <t>000634</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银证券健康产业灵活配置混合</t>
+          <t>富国天盛灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>59.84</t>
+          <t>93.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0486</t>
+          <t>0.5324</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2254</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005472</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005473</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1096,96 +1102,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3064</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.31</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603811-诚意药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603811-诚意药业.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.68</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.84</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -549,6 +566,288 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4501</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4227</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015139</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012432</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银安泰混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015140</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012431</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银安泰混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -642,7 +941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -774,7 +1073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1096,7 +1395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603811-诚意药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603811-诚意药业.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.68</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.84</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -566,6 +583,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4286</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4241</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -847,7 +1072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -941,7 +1166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1073,7 +1298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1395,7 +1620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
